--- a/programs/raw/에버랜드데이터셋11_static.xlsx
+++ b/programs/raw/에버랜드데이터셋11_static.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehyu\Desktop\대학\23-2 수업\컴알실\EverRoute\programs\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A028B5B-F6A3-4C41-BF1D-4410B52E7F7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CCDE69-5027-46F4-A28E-149998E053F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" activeTab="1" xr2:uid="{DE70A8A9-2802-1A4D-B0AB-DE520C9C843F}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="15495" xr2:uid="{DE70A8A9-2802-1A4D-B0AB-DE520C9C843F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="50">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>플라잉레스큐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슈팅코스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -754,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FC5945-55A5-374E-8CCF-F3E51157F911}">
   <dimension ref="A1:AB86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -777,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -846,7 +842,7 @@
         <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
@@ -6270,6 +6266,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6277,7 +6274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F95A82-1B86-4855-9E72-B83346A8697D}">
   <dimension ref="A1:AF40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -6302,7 +6299,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -6371,13 +6368,13 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.3">
@@ -6560,7 +6557,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>7.1778242521484739</v>
@@ -8626,7 +8623,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>4.5055380795450475</v>
@@ -8717,13 +8714,13 @@
     <row r="28" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="19" t="b">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="21">
         <v>42.279470000000003</v>
@@ -8732,73 +8729,73 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD30"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD31"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -8827,7 +8824,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -8836,7 +8833,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -8905,7 +8902,7 @@
         <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="5"/>
     </row>
@@ -9081,7 +9078,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="7">
         <v>6</v>
@@ -11055,7 +11052,7 @@
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
@@ -11144,68 +11141,68 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C30" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD30"/>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD31"/>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD32"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
